--- a/testData/mail_test_data.xlsx
+++ b/testData/mail_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_mail" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.11.245</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发送方用户名</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -123,10 +119,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>服务器地址为IP地址，服务器地址有误</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>发送服务器地址为a,点击测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,10 +127,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.11.245</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>发送方口令输入1，点击测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -177,6 +165,18 @@
   <si>
     <t>测试开关，状态为开！</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器地址有误</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +367,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,7 +669,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -692,13 +695,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>2</v>
@@ -712,19 +715,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -779,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
@@ -787,19 +790,19 @@
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -816,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -840,24 +843,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +874,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -895,13 +898,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>2</v>
@@ -909,25 +912,25 @@
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +946,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -970,13 +973,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>2</v>
@@ -984,112 +987,135 @@
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1097,6 +1123,9 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
